--- a/data/Spreadsheet_Data/HumanCharacter.xlsx
+++ b/data/Spreadsheet_Data/HumanCharacter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB2EEDA-1EF0-354D-A074-2C72FCD38886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE84195-2123-9E46-BDEC-A3A3AB611485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="500" windowWidth="54280" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28820" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="124">
   <si>
     <t>hasId</t>
   </si>
@@ -58,9 +58,6 @@
     <t>linkToLocation</t>
   </si>
   <si>
-    <t>linkToImage</t>
-  </si>
-  <si>
     <t>H_017</t>
   </si>
   <si>
@@ -329,13 +326,79 @@
   </si>
   <si>
     <t>Data Specialist, Scientific Programmer</t>
+  </si>
+  <si>
+    <t>linkToImageID</t>
+  </si>
+  <si>
+    <t>IH_001</t>
+  </si>
+  <si>
+    <t>IH_002</t>
+  </si>
+  <si>
+    <t>IH_003</t>
+  </si>
+  <si>
+    <t>IH_004</t>
+  </si>
+  <si>
+    <t>IH_005</t>
+  </si>
+  <si>
+    <t>IH_006</t>
+  </si>
+  <si>
+    <t>IH_007</t>
+  </si>
+  <si>
+    <t>IH_008</t>
+  </si>
+  <si>
+    <t>IH_009</t>
+  </si>
+  <si>
+    <t>IH_010</t>
+  </si>
+  <si>
+    <t>IH_011</t>
+  </si>
+  <si>
+    <t>IH_012</t>
+  </si>
+  <si>
+    <t>IH_013</t>
+  </si>
+  <si>
+    <t>IH_014</t>
+  </si>
+  <si>
+    <t>IH_015</t>
+  </si>
+  <si>
+    <t>IH_016</t>
+  </si>
+  <si>
+    <t>IH_017</t>
+  </si>
+  <si>
+    <t>IH_018</t>
+  </si>
+  <si>
+    <t>IH_019</t>
+  </si>
+  <si>
+    <t>IH_020</t>
+  </si>
+  <si>
+    <t>IH_021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -353,6 +416,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -376,13 +452,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,22 +682,21 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="2"/>
-    <col min="2" max="3" width="18.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.83203125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="12.6640625" style="2"/>
+    <col min="2" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="37" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -661,474 +737,537 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>18</v>
+      <c r="M2" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>18</v>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
+      <c r="M4" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>33</v>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>39</v>
+      <c r="M6" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="J7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>43</v>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>48</v>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>17</v>
+      <c r="J9" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>18</v>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>18</v>
+      <c r="J11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>65</v>
+      <c r="M12" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>18</v>
+      <c r="M13" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>56</v>
+      <c r="J15" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>56</v>
+      <c r="J16" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="J23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
